--- a/biology/Microbiologie/Bromeliophryidae/Bromeliophryidae.xlsx
+++ b/biology/Microbiologie/Bromeliophryidae/Bromeliophryidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bromeliophryidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l’ordre des Hymenostomatida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Bromeliophrya, formé de bromelio-, par allusion au genre Bromelia, et du mot grec ancien οφρύς / ophrýs, « sourcil ⇒ cil ⇒ cilié », littéralement « cilié de Bromélia », en référence au fait que cet organisme a été trouvé dans l'eau emprisonnée à l'aisselle des feuilles de broméliacées[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Bromeliophrya, formé de bromelio-, par allusion au genre Bromelia, et du mot grec ancien οφρύς / ophrýs, « sourcil ⇒ cil ⇒ cilié », littéralement « cilié de Bromélia », en référence au fait que cet organisme a été trouvé dans l'eau emprisonnée à l'aisselle des feuilles de broméliacées.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Lynn en 2010 décrit ainsi la famille synonyme des Glaucomidae Corliss, 1971 : 
-« Taille, petite à moyenne ; forme, ovoïde à ellipsoïde ; natation libre; ciliation somatique, holotriche, avec des cinétiques ventrales droites courbées vers la gauche, mais se tordant rarement brusquement vers l'avant pour être parallèles à la suture antérieure (sauf chez Glaucomella) ; cavité buccale, relativement grande, avec au moins une partie postérieure de paroral, non ciliée et complètement résorbée dans Bursostoma, et avec l'un ou les deux polykinétides oraux 2 et 3 ayant &gt; 3 rangées de kinétosomes ; un petit groupe de kinétosomes, appelé groupe X, généralement antérieur au polykinétide oral élargi 2 ; macronoyau, globulaire à ellipsoïde, parfois réniforme ; micronoyau, présent ; vacuole contractile, présente ; cytoprocte, présent ; microphages, mais plusieurs espèces carnivores sur d'autres ciliés, certaines subissant une transformation microstome-tomacrostome pour devenir carnivores ; kystes au repos chez certaines espèces[1]. »
+« Taille, petite à moyenne ; forme, ovoïde à ellipsoïde ; natation libre; ciliation somatique, holotriche, avec des cinétiques ventrales droites courbées vers la gauche, mais se tordant rarement brusquement vers l'avant pour être parallèles à la suture antérieure (sauf chez Glaucomella) ; cavité buccale, relativement grande, avec au moins une partie postérieure de paroral, non ciliée et complètement résorbée dans Bursostoma, et avec l'un ou les deux polykinétides oraux 2 et 3 ayant &gt; 3 rangées de kinétosomes ; un petit groupe de kinétosomes, appelé groupe X, généralement antérieur au polykinétide oral élargi 2 ; macronoyau, globulaire à ellipsoïde, parfois réniforme ; micronoyau, présent ; vacuole contractile, présente ; cytoprocte, présent ; microphages, mais plusieurs espèces carnivores sur d'autres ciliés, certaines subissant une transformation microstome-tomacrostome pour devenir carnivores ; kystes au repos chez certaines espèces. »
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille vivent dans des habitats d'eau douce et parfois terrestres[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille vivent dans des habitats d'eau douce et parfois terrestres.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (17 septembre 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (17 septembre 2023) :
 Bromeliophrya Foissner, 2003
 Espèce type : Bromeliophrya brasiliensis Foissner, 2003
 Glaucomides Foissner, 2013
@@ -640,9 +660,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Bromeliophryidae Foissner, 2003[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Bromeliophryidae Foissner, 2003.
 </t>
         </is>
       </c>
